--- a/data_year/zb/运输和邮电/民用汽车拥有量.xlsx
+++ b/data_year/zb/运输和邮电/民用汽车拥有量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,999 +508,617 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7655.56</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>20068.4748</v>
+      </c>
+      <c r="C2" t="n">
+        <v>146.0738</v>
+      </c>
+      <c r="D2" t="n">
+        <v>269.748</v>
+      </c>
       <c r="E2" t="n">
-        <v>38.86</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>80.14060000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>116.4424</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5498.3643</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363.2511</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21.124</v>
+      </c>
       <c r="J2" t="n">
-        <v>1608.91</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>7801.8259</v>
+      </c>
+      <c r="K2" t="n">
+        <v>911.8799</v>
+      </c>
       <c r="L2" t="n">
-        <v>853.73</v>
+        <v>6124.1316</v>
       </c>
       <c r="M2" t="n">
-        <v>716.3200000000001</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>1597.5537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>394.8018</v>
+      </c>
       <c r="O2" t="n">
-        <v>3746.51</v>
+        <v>15129.8921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8455.0407</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>22817.6249</v>
+      </c>
+      <c r="C3" t="n">
+        <v>147.4072</v>
+      </c>
+      <c r="D3" t="n">
+        <v>267.8008</v>
+      </c>
       <c r="E3" t="n">
-        <v>42.8399999999999</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>89.9606</v>
+      </c>
+      <c r="F3" t="n">
+        <v>126.5436</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6827.5396</v>
+      </c>
+      <c r="H3" t="n">
+        <v>376.8795</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.538</v>
+      </c>
       <c r="J3" t="n">
-        <v>1802.04</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>9356.3163</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1042.0699</v>
+      </c>
       <c r="L3" t="n">
-        <v>993.96</v>
+        <v>7478.3699</v>
       </c>
       <c r="M3" t="n">
-        <v>765.24</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>1787.9858</v>
+      </c>
+      <c r="N3" t="n">
+        <v>460.5771</v>
+      </c>
       <c r="O3" t="n">
-        <v>4462.6768</v>
+        <v>17416.7581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9362.030000000001</v>
+        <v>25250.8283</v>
       </c>
       <c r="C4" t="n">
-        <v>104.8</v>
+        <v>131.7779</v>
       </c>
       <c r="D4" t="n">
-        <v>218.69</v>
+        <v>229.195</v>
       </c>
       <c r="E4" t="n">
-        <v>38.58</v>
+        <v>95.33</v>
       </c>
       <c r="F4" t="n">
-        <v>75.48</v>
+        <v>128.1272</v>
       </c>
       <c r="G4" t="n">
-        <v>789.74</v>
+        <v>8302.6322</v>
       </c>
       <c r="H4" t="n">
-        <v>232.34</v>
+        <v>380.4742</v>
       </c>
       <c r="I4" t="n">
-        <v>84.66</v>
+        <v>13.3984</v>
       </c>
       <c r="J4" t="n">
-        <v>2053.17</v>
+        <v>10933.0912</v>
       </c>
       <c r="K4" t="n">
-        <v>360.58</v>
+        <v>1179.648</v>
       </c>
       <c r="L4" t="n">
-        <v>1202.37</v>
+        <v>8943.011500000001</v>
       </c>
       <c r="M4" t="n">
-        <v>812.22</v>
+        <v>1894.7497</v>
       </c>
       <c r="N4" t="n">
-        <v>148.28</v>
+        <v>472.5083</v>
       </c>
       <c r="O4" t="n">
-        <v>4827.08</v>
+        <v>20028.5176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10611.036</v>
+        <v>26955.9279</v>
       </c>
       <c r="C5" t="n">
-        <v>115.9575</v>
+        <v>117.0629</v>
       </c>
       <c r="D5" t="n">
-        <v>243.6994</v>
+        <v>196.4015</v>
       </c>
       <c r="E5" t="n">
-        <v>50.6106</v>
+        <v>97.7475</v>
       </c>
       <c r="F5" t="n">
-        <v>75.7612</v>
+        <v>131.3816</v>
       </c>
       <c r="G5" t="n">
-        <v>1017.2066</v>
+        <v>9951.461799999999</v>
       </c>
       <c r="H5" t="n">
-        <v>269.8829</v>
+        <v>361.8695</v>
       </c>
       <c r="I5" t="n">
-        <v>82.2212</v>
+        <v>12.225</v>
       </c>
       <c r="J5" t="n">
-        <v>2382.93</v>
+        <v>12670.1435</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7917</v>
+        <v>1300.019</v>
       </c>
       <c r="L5" t="n">
-        <v>1478.81</v>
+        <v>10561.7758</v>
       </c>
       <c r="M5" t="n">
-        <v>853.51</v>
+        <v>2010.6202</v>
       </c>
       <c r="N5" t="n">
-        <v>136.7943</v>
+        <v>501.9747</v>
       </c>
       <c r="O5" t="n">
-        <v>5368.0656</v>
+        <v>21742.7041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11769.0392</v>
+        <v>29892.3213</v>
       </c>
       <c r="C6" t="n">
-        <v>124.538</v>
+        <v>112.0587</v>
       </c>
       <c r="D6" t="n">
-        <v>233.9396</v>
+        <v>188.0933</v>
       </c>
       <c r="E6" t="n">
-        <v>64.8034</v>
+        <v>145.9459</v>
       </c>
       <c r="F6" t="n">
-        <v>78.0558</v>
+        <v>139.6076</v>
       </c>
       <c r="G6" t="n">
-        <v>1248.8914</v>
+        <v>11748.1913</v>
       </c>
       <c r="H6" t="n">
-        <v>284.4203</v>
+        <v>326.8394</v>
       </c>
       <c r="I6" t="n">
-        <v>79.425</v>
+        <v>17.9305</v>
       </c>
       <c r="J6" t="n">
-        <v>2693.7137</v>
+        <v>14598.1076</v>
       </c>
       <c r="K6" t="n">
-        <v>425.7389</v>
+        <v>1385.7678</v>
       </c>
       <c r="L6" t="n">
-        <v>1735.9055</v>
+        <v>12326.697</v>
       </c>
       <c r="M6" t="n">
-        <v>893.0048</v>
+        <v>2125.4647</v>
       </c>
       <c r="N6" t="n">
-        <v>153.9013</v>
+        <v>533.6731</v>
       </c>
       <c r="O6" t="n">
-        <v>7101.6414</v>
+        <v>24812.065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13069.5249</v>
+        <v>32853.0456</v>
       </c>
       <c r="C7" t="n">
-        <v>131.6547</v>
+        <v>89.66419999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>236.6563</v>
+        <v>148.8706</v>
       </c>
       <c r="E7" t="n">
-        <v>71.66079999999999</v>
+        <v>122.9472</v>
       </c>
       <c r="F7" t="n">
-        <v>82.1324</v>
+        <v>140.0729</v>
       </c>
       <c r="G7" t="n">
-        <v>1618.3494</v>
+        <v>13580.4833</v>
       </c>
       <c r="H7" t="n">
-        <v>300.3188</v>
+        <v>285.6607</v>
       </c>
       <c r="I7" t="n">
-        <v>66.3068</v>
+        <v>10.9038</v>
       </c>
       <c r="J7" t="n">
-        <v>3159.6629</v>
+        <v>16284.4501</v>
       </c>
       <c r="K7" t="n">
-        <v>484.5105</v>
+        <v>1375.7928</v>
       </c>
       <c r="L7" t="n">
-        <v>2132.4553</v>
+        <v>14095.8811</v>
       </c>
       <c r="M7" t="n">
-        <v>955.5468</v>
+        <v>2065.6218</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0732</v>
+        <v>530.0546000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>8017.756</v>
+        <v>28012.9937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14213.8678</v>
+        <v>35876.9829</v>
       </c>
       <c r="C8" t="n">
-        <v>136.9952</v>
+        <v>83.8211</v>
       </c>
       <c r="D8" t="n">
-        <v>235.3947</v>
+        <v>138.6912</v>
       </c>
       <c r="E8" t="n">
-        <v>91.4853</v>
+        <v>124.4079</v>
       </c>
       <c r="F8" t="n">
-        <v>87.3377</v>
+        <v>146.0273</v>
       </c>
       <c r="G8" t="n">
-        <v>2083.4032</v>
+        <v>15813.8396</v>
       </c>
       <c r="H8" t="n">
-        <v>311.8325</v>
+        <v>234.5539</v>
       </c>
       <c r="I8" t="n">
-        <v>44.7587</v>
+        <v>8.433400000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3697.3531</v>
+        <v>18574.5435</v>
       </c>
       <c r="K8" t="n">
-        <v>532.1341</v>
+        <v>1455.2857</v>
       </c>
       <c r="L8" t="n">
-        <v>2619.5686</v>
+        <v>16278.2419</v>
       </c>
       <c r="M8" t="n">
-        <v>986.2992</v>
+        <v>2171.8937</v>
       </c>
       <c r="N8" t="n">
-        <v>174.0117</v>
+        <v>569.4834</v>
       </c>
       <c r="O8" t="n">
-        <v>9317.2381</v>
+        <v>30328.7721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15363.88</v>
+        <v>36016.9437</v>
       </c>
       <c r="C9" t="n">
-        <v>140.5202</v>
+        <v>78.9529</v>
       </c>
       <c r="D9" t="n">
-        <v>243.4643</v>
+        <v>130.6786</v>
       </c>
       <c r="E9" t="n">
-        <v>108.3051</v>
+        <v>98.28279999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>93.8242</v>
+        <v>152.9365</v>
       </c>
       <c r="G9" t="n">
-        <v>2646.4667</v>
+        <v>18038.6935</v>
       </c>
       <c r="H9" t="n">
-        <v>315.1832</v>
+        <v>198.9596</v>
       </c>
       <c r="I9" t="n">
-        <v>36.6349</v>
+        <v>6.4624</v>
       </c>
       <c r="J9" t="n">
-        <v>4358.355</v>
+        <v>20906.673</v>
       </c>
       <c r="K9" t="n">
-        <v>587.2202</v>
+        <v>1566.2997</v>
       </c>
       <c r="L9" t="n">
-        <v>3195.9943</v>
+        <v>18469.5425</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.0556</v>
+        <v>2338.8477</v>
       </c>
       <c r="N9" t="n">
-        <v>186.7362</v>
+        <v>635.407</v>
       </c>
       <c r="O9" t="n">
-        <v>10567.15</v>
+        <v>31658.2041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17336.56</v>
+        <v>41030.1633</v>
       </c>
       <c r="C10" t="n">
-        <v>143.1889</v>
+        <v>75.39749999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>249.7305</v>
+        <v>124.3928</v>
       </c>
       <c r="E10" t="n">
-        <v>134.6218</v>
+        <v>107.9962</v>
       </c>
       <c r="F10" t="n">
-        <v>100.3939</v>
+        <v>158.3346</v>
       </c>
       <c r="G10" t="n">
-        <v>3271.1443</v>
+        <v>20135.2154</v>
       </c>
       <c r="H10" t="n">
-        <v>324.1949</v>
+        <v>186.4571</v>
       </c>
       <c r="I10" t="n">
-        <v>30.543</v>
+        <v>5.3716</v>
       </c>
       <c r="J10" t="n">
-        <v>5099.6094</v>
+        <v>23231.225</v>
       </c>
       <c r="K10" t="n">
-        <v>644.9561</v>
+        <v>1728.5252</v>
       </c>
       <c r="L10" t="n">
-        <v>3838.922</v>
+        <v>20555.4046</v>
       </c>
       <c r="M10" t="n">
-        <v>1126.0656</v>
+        <v>2567.8242</v>
       </c>
       <c r="N10" t="n">
-        <v>200.836</v>
+        <v>709.5346</v>
       </c>
       <c r="O10" t="n">
-        <v>12276.8009</v>
+        <v>36923.4248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19167.5805</v>
+        <v>43636.7423</v>
       </c>
       <c r="C11" t="n">
-        <v>145.7994</v>
+        <v>72.0775</v>
       </c>
       <c r="D11" t="n">
-        <v>262.2138</v>
+        <v>116.2689</v>
       </c>
       <c r="E11" t="n">
-        <v>66.919</v>
+        <v>119.2736</v>
       </c>
       <c r="F11" t="n">
-        <v>107.9504</v>
+        <v>160.5772</v>
       </c>
       <c r="G11" t="n">
-        <v>4246.8969</v>
+        <v>22069.7376</v>
       </c>
       <c r="H11" t="n">
-        <v>344.4421</v>
+        <v>171.8786</v>
       </c>
       <c r="I11" t="n">
-        <v>25.9725</v>
+        <v>4.1097</v>
       </c>
       <c r="J11" t="n">
-        <v>6280.6086</v>
+        <v>25376.3816</v>
       </c>
       <c r="K11" t="n">
-        <v>765.3348999999999</v>
+        <v>1900.76</v>
       </c>
       <c r="L11" t="n">
-        <v>4845.0888</v>
+        <v>22474.2709</v>
       </c>
       <c r="M11" t="n">
-        <v>1368.6008</v>
+        <v>2782.8371</v>
       </c>
       <c r="N11" t="n">
-        <v>315.0796</v>
+        <v>761.6985</v>
       </c>
       <c r="O11" t="n">
-        <v>13740.7273</v>
+        <v>39752.8574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20068.4748</v>
+        <v>45702.4874</v>
       </c>
       <c r="C12" t="n">
-        <v>146.0738</v>
+        <v>68.2884</v>
       </c>
       <c r="D12" t="n">
-        <v>269.748</v>
+        <v>106.189</v>
       </c>
       <c r="E12" t="n">
-        <v>80.14060000000001</v>
+        <v>132.0928</v>
       </c>
       <c r="F12" t="n">
-        <v>116.4424</v>
+        <v>157.0119</v>
       </c>
       <c r="G12" t="n">
-        <v>5498.3643</v>
+        <v>23782.7663</v>
       </c>
       <c r="H12" t="n">
-        <v>363.2511</v>
+        <v>158.1176</v>
       </c>
       <c r="I12" t="n">
-        <v>21.124</v>
+        <v>3.0859</v>
       </c>
       <c r="J12" t="n">
-        <v>7801.8259</v>
+        <v>27340.9175</v>
       </c>
       <c r="K12" t="n">
-        <v>911.8799</v>
+        <v>2092.7218</v>
       </c>
       <c r="L12" t="n">
-        <v>6124.1316</v>
+        <v>24166.1842</v>
       </c>
       <c r="M12" t="n">
-        <v>1597.5537</v>
+        <v>3042.6405</v>
       </c>
       <c r="N12" t="n">
-        <v>394.8018</v>
+        <v>840.6438000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>15129.8921</v>
+        <v>41794.8922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22817.6249</v>
+        <v>48113.642</v>
       </c>
       <c r="C13" t="n">
-        <v>147.4072</v>
+        <v>65.45010000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>267.8008</v>
+        <v>95.87779999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>89.9606</v>
+        <v>144.2809</v>
       </c>
       <c r="F13" t="n">
-        <v>126.5436</v>
+        <v>152.9997</v>
       </c>
       <c r="G13" t="n">
-        <v>6827.5396</v>
+        <v>25651.9875</v>
       </c>
       <c r="H13" t="n">
-        <v>376.8795</v>
+        <v>145.4037</v>
       </c>
       <c r="I13" t="n">
-        <v>17.538</v>
+        <v>2.2485</v>
       </c>
       <c r="J13" t="n">
-        <v>9356.3163</v>
+        <v>29418.5906</v>
       </c>
       <c r="K13" t="n">
-        <v>1042.0699</v>
+        <v>2253.2551</v>
       </c>
       <c r="L13" t="n">
-        <v>7478.3699</v>
+        <v>26015.841</v>
       </c>
       <c r="M13" t="n">
-        <v>1787.9858</v>
+        <v>3258.4687</v>
       </c>
       <c r="N13" t="n">
-        <v>460.5771</v>
+        <v>907.0873</v>
       </c>
       <c r="O13" t="n">
-        <v>17416.7581</v>
+        <v>44379.7191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>25250.8283</v>
-      </c>
-      <c r="C14" t="n">
-        <v>131.7779</v>
-      </c>
-      <c r="D14" t="n">
-        <v>229.195</v>
-      </c>
-      <c r="E14" t="n">
-        <v>95.33</v>
-      </c>
-      <c r="F14" t="n">
-        <v>128.1272</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8302.6322</v>
-      </c>
-      <c r="H14" t="n">
-        <v>380.4742</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13.3984</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>10933.0912</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1179.648</v>
-      </c>
+        <v>31184.437</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>8943.011500000001</v>
+        <v>27715.5467</v>
       </c>
       <c r="M14" t="n">
-        <v>1894.7497</v>
-      </c>
-      <c r="N14" t="n">
-        <v>472.5083</v>
-      </c>
-      <c r="O14" t="n">
-        <v>20028.5176</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>26955.9279</v>
-      </c>
-      <c r="C15" t="n">
-        <v>117.0629</v>
-      </c>
-      <c r="D15" t="n">
-        <v>196.4015</v>
-      </c>
-      <c r="E15" t="n">
-        <v>97.7475</v>
-      </c>
-      <c r="F15" t="n">
-        <v>131.3816</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9951.461799999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>361.8695</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12.225</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12670.1435</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1300.019</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10561.7758</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2010.6202</v>
-      </c>
-      <c r="N15" t="n">
-        <v>501.9747</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21742.7041</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>29892.3213</v>
-      </c>
-      <c r="C16" t="n">
-        <v>112.0587</v>
-      </c>
-      <c r="D16" t="n">
-        <v>188.0933</v>
-      </c>
-      <c r="E16" t="n">
-        <v>145.9459</v>
-      </c>
-      <c r="F16" t="n">
-        <v>139.6076</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11748.1913</v>
-      </c>
-      <c r="H16" t="n">
-        <v>326.8394</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17.9305</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14598.1076</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1385.7678</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12326.697</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2125.4647</v>
-      </c>
-      <c r="N16" t="n">
-        <v>533.6731</v>
-      </c>
-      <c r="O16" t="n">
-        <v>24812.065</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>32853.0456</v>
-      </c>
-      <c r="C17" t="n">
-        <v>89.66419999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>148.8706</v>
-      </c>
-      <c r="E17" t="n">
-        <v>122.9472</v>
-      </c>
-      <c r="F17" t="n">
-        <v>140.0729</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13580.4833</v>
-      </c>
-      <c r="H17" t="n">
-        <v>285.6607</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10.9038</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16284.4501</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1375.7928</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14095.8811</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2065.6218</v>
-      </c>
-      <c r="N17" t="n">
-        <v>530.0546000000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>28012.9937</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>35876.9829</v>
-      </c>
-      <c r="C18" t="n">
-        <v>83.8211</v>
-      </c>
-      <c r="D18" t="n">
-        <v>138.6912</v>
-      </c>
-      <c r="E18" t="n">
-        <v>124.4079</v>
-      </c>
-      <c r="F18" t="n">
-        <v>146.0273</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15813.8396</v>
-      </c>
-      <c r="H18" t="n">
-        <v>234.5539</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.433400000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>18574.5435</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1455.2857</v>
-      </c>
-      <c r="L18" t="n">
-        <v>16278.2419</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2171.8937</v>
-      </c>
-      <c r="N18" t="n">
-        <v>569.4834</v>
-      </c>
-      <c r="O18" t="n">
-        <v>30328.7721</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>36016.9437</v>
-      </c>
-      <c r="C19" t="n">
-        <v>78.9529</v>
-      </c>
-      <c r="D19" t="n">
-        <v>130.6786</v>
-      </c>
-      <c r="E19" t="n">
-        <v>98.28279999999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>152.9365</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18038.6935</v>
-      </c>
-      <c r="H19" t="n">
-        <v>198.9596</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.4624</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20906.673</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1566.2997</v>
-      </c>
-      <c r="L19" t="n">
-        <v>18469.5425</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2338.8477</v>
-      </c>
-      <c r="N19" t="n">
-        <v>635.407</v>
-      </c>
-      <c r="O19" t="n">
-        <v>31658.2041</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>41030.1633</v>
-      </c>
-      <c r="C20" t="n">
-        <v>75.39749999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>124.3928</v>
-      </c>
-      <c r="E20" t="n">
-        <v>107.9962</v>
-      </c>
-      <c r="F20" t="n">
-        <v>158.3346</v>
-      </c>
-      <c r="G20" t="n">
-        <v>20135.2154</v>
-      </c>
-      <c r="H20" t="n">
-        <v>186.4571</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.3716</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23231.225</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1728.5252</v>
-      </c>
-      <c r="L20" t="n">
-        <v>20555.4046</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2567.8242</v>
-      </c>
-      <c r="N20" t="n">
-        <v>709.5346</v>
-      </c>
-      <c r="O20" t="n">
-        <v>36923.4248</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>43636.7423</v>
-      </c>
-      <c r="C21" t="n">
-        <v>72.0775</v>
-      </c>
-      <c r="D21" t="n">
-        <v>116.2689</v>
-      </c>
-      <c r="E21" t="n">
-        <v>119.2736</v>
-      </c>
-      <c r="F21" t="n">
-        <v>160.5772</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22069.7376</v>
-      </c>
-      <c r="H21" t="n">
-        <v>171.8786</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.1097</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25376.3816</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1900.76</v>
-      </c>
-      <c r="L21" t="n">
-        <v>22474.2709</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2782.8371</v>
-      </c>
-      <c r="N21" t="n">
-        <v>761.6985</v>
-      </c>
-      <c r="O21" t="n">
-        <v>39752.8574</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>45702.4874</v>
-      </c>
-      <c r="C22" t="n">
-        <v>68.2884</v>
-      </c>
-      <c r="D22" t="n">
-        <v>106.189</v>
-      </c>
-      <c r="E22" t="n">
-        <v>132.0928</v>
-      </c>
-      <c r="F22" t="n">
-        <v>157.0119</v>
-      </c>
-      <c r="G22" t="n">
-        <v>23782.7663</v>
-      </c>
-      <c r="H22" t="n">
-        <v>158.1176</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.0859</v>
-      </c>
-      <c r="J22" t="n">
-        <v>27340.9175</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2092.7218</v>
-      </c>
-      <c r="L22" t="n">
-        <v>24166.1842</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3042.6405</v>
-      </c>
-      <c r="N22" t="n">
-        <v>840.6438000000001</v>
-      </c>
-      <c r="O22" t="n">
-        <v>41794.8922</v>
-      </c>
+        <v>3317.6495</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
